--- a/docs/qa/Matriz de trazabilidad LATA.xlsx
+++ b/docs/qa/Matriz de trazabilidad LATA.xlsx
@@ -3,7 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Hoja 1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Local" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="STF" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -260,7 +261,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="8">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -283,14 +284,6 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font>
-      <color rgb="FFFFFFFF"/>
-    </font>
-    <font>
-      <b/>
-      <color rgb="FFFFFFFF"/>
-    </font>
-    <font/>
   </fonts>
   <fills count="17">
     <fill>
@@ -396,7 +389,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -427,10 +420,10 @@
     <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -445,29 +438,23 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="12" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="13" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="13" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="14" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="14" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="15" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="16" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="16" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -478,6 +465,10 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -1148,7 +1139,7 @@
       <c r="A19" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="14" t="s">
         <v>20</v>
       </c>
       <c r="C19" s="15"/>
@@ -1172,7 +1163,7 @@
         <v>36</v>
       </c>
       <c r="B20" s="15"/>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="14" t="s">
         <v>20</v>
       </c>
       <c r="D20" s="15"/>
@@ -1195,7 +1186,7 @@
         <v>37</v>
       </c>
       <c r="B21" s="15"/>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="14" t="s">
         <v>20</v>
       </c>
       <c r="D21" s="15"/>
@@ -1219,7 +1210,7 @@
       </c>
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
-      <c r="D22" s="20" t="s">
+      <c r="D22" s="19" t="s">
         <v>20</v>
       </c>
       <c r="E22" s="15"/>
@@ -1242,7 +1233,7 @@
       </c>
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
-      <c r="D23" s="19" t="s">
+      <c r="D23" s="14" t="s">
         <v>20</v>
       </c>
       <c r="E23" s="15"/>
@@ -1265,7 +1256,7 @@
       </c>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
-      <c r="D24" s="19" t="s">
+      <c r="D24" s="14" t="s">
         <v>20</v>
       </c>
       <c r="E24" s="15"/>
@@ -1288,7 +1279,7 @@
       </c>
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
-      <c r="D25" s="19" t="s">
+      <c r="D25" s="14" t="s">
         <v>20</v>
       </c>
       <c r="E25" s="15"/>
@@ -1312,7 +1303,7 @@
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
       <c r="D26" s="15"/>
-      <c r="E26" s="19" t="s">
+      <c r="E26" s="14" t="s">
         <v>20</v>
       </c>
       <c r="F26" s="15"/>
@@ -1338,7 +1329,7 @@
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
-      <c r="H27" s="20" t="s">
+      <c r="H27" s="19" t="s">
         <v>20</v>
       </c>
       <c r="I27" s="14"/>
@@ -1361,7 +1352,7 @@
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
-      <c r="H28" s="19" t="s">
+      <c r="H28" s="14" t="s">
         <v>20</v>
       </c>
       <c r="I28" s="15"/>
@@ -1385,7 +1376,7 @@
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
-      <c r="I29" s="19" t="s">
+      <c r="I29" s="14" t="s">
         <v>20</v>
       </c>
       <c r="J29" s="14"/>
@@ -1408,7 +1399,7 @@
       <c r="F30" s="15"/>
       <c r="G30" s="15"/>
       <c r="H30" s="15"/>
-      <c r="I30" s="19" t="s">
+      <c r="I30" s="14" t="s">
         <v>20</v>
       </c>
       <c r="J30" s="14"/>
@@ -1421,7 +1412,7 @@
       <c r="Q30" s="15"/>
     </row>
     <row r="31">
-      <c r="A31" s="21" t="s">
+      <c r="A31" s="20" t="s">
         <v>47</v>
       </c>
       <c r="E31" s="15"/>
@@ -1441,7 +1432,7 @@
       <c r="Q31" s="15"/>
     </row>
     <row r="32">
-      <c r="A32" s="21" t="s">
+      <c r="A32" s="20" t="s">
         <v>48</v>
       </c>
       <c r="E32" s="15"/>
@@ -1461,7 +1452,7 @@
       <c r="Q32" s="15"/>
     </row>
     <row r="33">
-      <c r="A33" s="21" t="s">
+      <c r="A33" s="20" t="s">
         <v>49</v>
       </c>
       <c r="E33" s="15"/>
@@ -1481,7 +1472,7 @@
       <c r="Q33" s="15"/>
     </row>
     <row r="34">
-      <c r="A34" s="21" t="s">
+      <c r="A34" s="20" t="s">
         <v>50</v>
       </c>
       <c r="E34" s="15"/>
@@ -1491,7 +1482,7 @@
       <c r="I34" s="15"/>
       <c r="J34" s="15"/>
       <c r="K34" s="15"/>
-      <c r="L34" s="19" t="s">
+      <c r="L34" s="14" t="s">
         <v>20</v>
       </c>
       <c r="M34" s="15"/>
@@ -1501,7 +1492,7 @@
       <c r="Q34" s="15"/>
     </row>
     <row r="35">
-      <c r="A35" s="21" t="s">
+      <c r="A35" s="20" t="s">
         <v>51</v>
       </c>
       <c r="E35" s="15"/>
@@ -1511,7 +1502,7 @@
       <c r="I35" s="15"/>
       <c r="J35" s="15"/>
       <c r="K35" s="15"/>
-      <c r="L35" s="19" t="s">
+      <c r="L35" s="14" t="s">
         <v>20</v>
       </c>
       <c r="M35" s="15"/>
@@ -1521,7 +1512,7 @@
       <c r="Q35" s="15"/>
     </row>
     <row r="36">
-      <c r="A36" s="21" t="s">
+      <c r="A36" s="20" t="s">
         <v>52</v>
       </c>
       <c r="E36" s="15"/>
@@ -1531,7 +1522,7 @@
       <c r="I36" s="15"/>
       <c r="J36" s="15"/>
       <c r="K36" s="15"/>
-      <c r="L36" s="19" t="s">
+      <c r="L36" s="14" t="s">
         <v>20</v>
       </c>
       <c r="M36" s="15"/>
@@ -1541,7 +1532,7 @@
       <c r="Q36" s="15"/>
     </row>
     <row r="37">
-      <c r="A37" s="21" t="s">
+      <c r="A37" s="20" t="s">
         <v>53</v>
       </c>
       <c r="E37" s="15"/>
@@ -1551,7 +1542,7 @@
       <c r="I37" s="15"/>
       <c r="J37" s="15"/>
       <c r="K37" s="15"/>
-      <c r="L37" s="19" t="s">
+      <c r="L37" s="14" t="s">
         <v>20</v>
       </c>
       <c r="M37" s="15"/>
@@ -1561,7 +1552,7 @@
       <c r="Q37" s="15"/>
     </row>
     <row r="38">
-      <c r="A38" s="21" t="s">
+      <c r="A38" s="20" t="s">
         <v>54</v>
       </c>
       <c r="B38" s="15"/>
@@ -1575,7 +1566,7 @@
       <c r="J38" s="15"/>
       <c r="K38" s="15"/>
       <c r="L38" s="15"/>
-      <c r="M38" s="19" t="s">
+      <c r="M38" s="14" t="s">
         <v>20</v>
       </c>
       <c r="N38" s="15"/>
@@ -1584,7 +1575,7 @@
       <c r="Q38" s="15"/>
     </row>
     <row r="39">
-      <c r="A39" s="21" t="s">
+      <c r="A39" s="20" t="s">
         <v>55</v>
       </c>
       <c r="B39" s="15"/>
@@ -1607,7 +1598,7 @@
       <c r="Q39" s="15"/>
     </row>
     <row r="40">
-      <c r="A40" s="21" t="s">
+      <c r="A40" s="20" t="s">
         <v>56</v>
       </c>
       <c r="B40" s="15"/>
@@ -1622,7 +1613,7 @@
       <c r="K40" s="15"/>
       <c r="L40" s="15"/>
       <c r="M40" s="15"/>
-      <c r="N40" s="19" t="s">
+      <c r="N40" s="14" t="s">
         <v>20</v>
       </c>
       <c r="O40" s="15"/>
@@ -1630,7 +1621,7 @@
       <c r="Q40" s="15"/>
     </row>
     <row r="41">
-      <c r="A41" s="21" t="s">
+      <c r="A41" s="20" t="s">
         <v>57</v>
       </c>
       <c r="B41" s="15"/>
@@ -1646,14 +1637,14 @@
       <c r="L41" s="15"/>
       <c r="M41" s="15"/>
       <c r="N41" s="15"/>
-      <c r="O41" s="19" t="s">
+      <c r="O41" s="14" t="s">
         <v>20</v>
       </c>
       <c r="P41" s="15"/>
       <c r="Q41" s="15"/>
     </row>
     <row r="42">
-      <c r="A42" s="21" t="s">
+      <c r="A42" s="20" t="s">
         <v>58</v>
       </c>
       <c r="B42" s="15"/>
@@ -1670,13 +1661,13 @@
       <c r="M42" s="15"/>
       <c r="N42" s="15"/>
       <c r="O42" s="15"/>
-      <c r="P42" s="19" t="s">
+      <c r="P42" s="14" t="s">
         <v>20</v>
       </c>
       <c r="Q42" s="15"/>
     </row>
     <row r="43">
-      <c r="A43" s="21" t="s">
+      <c r="A43" s="20" t="s">
         <v>59</v>
       </c>
       <c r="B43" s="15"/>
@@ -1693,13 +1684,13 @@
       <c r="M43" s="15"/>
       <c r="N43" s="15"/>
       <c r="O43" s="15"/>
-      <c r="P43" s="19" t="s">
+      <c r="P43" s="14" t="s">
         <v>20</v>
       </c>
       <c r="Q43" s="15"/>
     </row>
     <row r="44">
-      <c r="A44" s="21" t="s">
+      <c r="A44" s="20" t="s">
         <v>60</v>
       </c>
       <c r="B44" s="15"/>
@@ -1717,12 +1708,12 @@
       <c r="N44" s="15"/>
       <c r="O44" s="15"/>
       <c r="P44" s="15"/>
-      <c r="Q44" s="19" t="s">
+      <c r="Q44" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="21" t="s">
+      <c r="A45" s="20" t="s">
         <v>61</v>
       </c>
       <c r="B45" s="15"/>
@@ -1740,12 +1731,12 @@
       <c r="N45" s="15"/>
       <c r="O45" s="15"/>
       <c r="P45" s="15"/>
-      <c r="Q45" s="19" t="s">
+      <c r="Q45" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="22" t="s">
+      <c r="A46" s="21" t="s">
         <v>62</v>
       </c>
       <c r="B46" s="15"/>
@@ -1756,11 +1747,11 @@
       <c r="G46" s="15"/>
       <c r="H46" s="15"/>
       <c r="I46" s="15"/>
-      <c r="J46" s="19" t="s">
+      <c r="J46" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="K46" s="23"/>
-      <c r="L46" s="23"/>
+      <c r="K46" s="15"/>
+      <c r="L46" s="15"/>
       <c r="M46" s="15"/>
       <c r="N46" s="15"/>
       <c r="O46" s="15"/>
@@ -1768,7 +1759,7 @@
       <c r="Q46" s="15"/>
     </row>
     <row r="47">
-      <c r="A47" s="22" t="s">
+      <c r="A47" s="21" t="s">
         <v>63</v>
       </c>
       <c r="B47" s="15"/>
@@ -1779,11 +1770,11 @@
       <c r="G47" s="15"/>
       <c r="H47" s="15"/>
       <c r="I47" s="15"/>
-      <c r="J47" s="23"/>
-      <c r="K47" s="19" t="s">
+      <c r="J47" s="15"/>
+      <c r="K47" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="L47" s="23"/>
+      <c r="L47" s="15"/>
       <c r="M47" s="15"/>
       <c r="N47" s="15"/>
       <c r="O47" s="15"/>
@@ -1791,7 +1782,7 @@
       <c r="Q47" s="15"/>
     </row>
     <row r="48">
-      <c r="A48" s="22" t="s">
+      <c r="A48" s="21" t="s">
         <v>64</v>
       </c>
       <c r="B48" s="15"/>
@@ -1802,24 +1793,24 @@
       <c r="G48" s="15"/>
       <c r="H48" s="15"/>
       <c r="I48" s="15"/>
-      <c r="J48" s="23"/>
-      <c r="K48" s="19" t="s">
+      <c r="J48" s="15"/>
+      <c r="K48" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="L48" s="23"/>
+      <c r="L48" s="15"/>
       <c r="M48" s="15"/>
       <c r="N48" s="15"/>
       <c r="O48" s="15"/>
       <c r="P48" s="15"/>
       <c r="Q48" s="15"/>
-      <c r="R48" s="23"/>
-      <c r="S48" s="23"/>
-      <c r="T48" s="23"/>
-      <c r="U48" s="23"/>
-      <c r="V48" s="23"/>
+      <c r="R48" s="15"/>
+      <c r="S48" s="15"/>
+      <c r="T48" s="15"/>
+      <c r="U48" s="15"/>
+      <c r="V48" s="15"/>
     </row>
     <row r="49">
-      <c r="A49" s="22" t="s">
+      <c r="A49" s="21" t="s">
         <v>65</v>
       </c>
       <c r="B49" s="15"/>
@@ -1830,9 +1821,9 @@
       <c r="G49" s="15"/>
       <c r="H49" s="15"/>
       <c r="I49" s="15"/>
-      <c r="J49" s="23"/>
-      <c r="K49" s="23"/>
-      <c r="L49" s="19" t="s">
+      <c r="J49" s="15"/>
+      <c r="K49" s="15"/>
+      <c r="L49" s="14" t="s">
         <v>20</v>
       </c>
       <c r="M49" s="15"/>
@@ -1840,14 +1831,14 @@
       <c r="O49" s="15"/>
       <c r="P49" s="15"/>
       <c r="Q49" s="15"/>
-      <c r="R49" s="23"/>
-      <c r="S49" s="23"/>
-      <c r="T49" s="23"/>
-      <c r="U49" s="23"/>
-      <c r="V49" s="23"/>
+      <c r="R49" s="15"/>
+      <c r="S49" s="15"/>
+      <c r="T49" s="15"/>
+      <c r="U49" s="15"/>
+      <c r="V49" s="15"/>
     </row>
     <row r="50">
-      <c r="A50" s="22" t="s">
+      <c r="A50" s="21" t="s">
         <v>66</v>
       </c>
       <c r="B50" s="15"/>
@@ -1858,9 +1849,9 @@
       <c r="G50" s="15"/>
       <c r="H50" s="15"/>
       <c r="I50" s="15"/>
-      <c r="J50" s="23"/>
-      <c r="K50" s="23"/>
-      <c r="L50" s="19" t="s">
+      <c r="J50" s="15"/>
+      <c r="K50" s="15"/>
+      <c r="L50" s="14" t="s">
         <v>20</v>
       </c>
       <c r="M50" s="15"/>
@@ -1868,14 +1859,14 @@
       <c r="O50" s="15"/>
       <c r="P50" s="15"/>
       <c r="Q50" s="15"/>
-      <c r="R50" s="23"/>
-      <c r="S50" s="23"/>
-      <c r="T50" s="23"/>
-      <c r="U50" s="23"/>
-      <c r="V50" s="23"/>
+      <c r="R50" s="15"/>
+      <c r="S50" s="15"/>
+      <c r="T50" s="15"/>
+      <c r="U50" s="15"/>
+      <c r="V50" s="15"/>
     </row>
     <row r="51">
-      <c r="A51" s="22" t="s">
+      <c r="A51" s="21" t="s">
         <v>67</v>
       </c>
       <c r="B51" s="15"/>
@@ -1886,9 +1877,9 @@
       <c r="G51" s="15"/>
       <c r="H51" s="15"/>
       <c r="I51" s="15"/>
-      <c r="J51" s="23"/>
-      <c r="K51" s="23"/>
-      <c r="L51" s="19" t="s">
+      <c r="J51" s="15"/>
+      <c r="K51" s="15"/>
+      <c r="L51" s="14" t="s">
         <v>20</v>
       </c>
       <c r="M51" s="15"/>
@@ -1896,14 +1887,14 @@
       <c r="O51" s="15"/>
       <c r="P51" s="15"/>
       <c r="Q51" s="15"/>
-      <c r="R51" s="23"/>
-      <c r="S51" s="23"/>
-      <c r="T51" s="23"/>
-      <c r="U51" s="23"/>
-      <c r="V51" s="23"/>
+      <c r="R51" s="15"/>
+      <c r="S51" s="15"/>
+      <c r="T51" s="15"/>
+      <c r="U51" s="15"/>
+      <c r="V51" s="15"/>
     </row>
     <row r="52">
-      <c r="A52" s="22" t="s">
+      <c r="A52" s="21" t="s">
         <v>68</v>
       </c>
       <c r="B52" s="15"/>
@@ -1914,9 +1905,9 @@
       <c r="G52" s="15"/>
       <c r="H52" s="15"/>
       <c r="I52" s="15"/>
-      <c r="J52" s="23"/>
-      <c r="K52" s="23"/>
-      <c r="L52" s="19" t="s">
+      <c r="J52" s="15"/>
+      <c r="K52" s="15"/>
+      <c r="L52" s="14" t="s">
         <v>20</v>
       </c>
       <c r="M52" s="15"/>
@@ -1924,14 +1915,14 @@
       <c r="O52" s="15"/>
       <c r="P52" s="15"/>
       <c r="Q52" s="15"/>
-      <c r="R52" s="23"/>
-      <c r="S52" s="23"/>
-      <c r="T52" s="23"/>
-      <c r="U52" s="23"/>
-      <c r="V52" s="23"/>
+      <c r="R52" s="15"/>
+      <c r="S52" s="15"/>
+      <c r="T52" s="15"/>
+      <c r="U52" s="15"/>
+      <c r="V52" s="15"/>
     </row>
     <row r="53">
-      <c r="A53" s="22" t="s">
+      <c r="A53" s="21" t="s">
         <v>69</v>
       </c>
       <c r="B53" s="15"/>
@@ -1945,21 +1936,21 @@
       <c r="J53" s="15"/>
       <c r="K53" s="15"/>
       <c r="L53" s="15"/>
-      <c r="M53" s="19" t="s">
+      <c r="M53" s="14" t="s">
         <v>20</v>
       </c>
       <c r="N53" s="15"/>
       <c r="O53" s="15"/>
       <c r="P53" s="15"/>
       <c r="Q53" s="15"/>
-      <c r="R53" s="23"/>
-      <c r="S53" s="23"/>
-      <c r="T53" s="23"/>
-      <c r="U53" s="23"/>
-      <c r="V53" s="23"/>
+      <c r="R53" s="15"/>
+      <c r="S53" s="15"/>
+      <c r="T53" s="15"/>
+      <c r="U53" s="15"/>
+      <c r="V53" s="15"/>
     </row>
     <row r="54">
-      <c r="A54" s="22" t="s">
+      <c r="A54" s="21" t="s">
         <v>70</v>
       </c>
       <c r="B54" s="15"/>
@@ -1976,18 +1967,18 @@
       <c r="M54" s="15"/>
       <c r="N54" s="15"/>
       <c r="O54" s="15"/>
-      <c r="P54" s="19" t="s">
+      <c r="P54" s="14" t="s">
         <v>20</v>
       </c>
       <c r="Q54" s="15"/>
-      <c r="R54" s="23"/>
-      <c r="S54" s="23"/>
-      <c r="T54" s="23"/>
-      <c r="U54" s="23"/>
-      <c r="V54" s="23"/>
+      <c r="R54" s="15"/>
+      <c r="S54" s="15"/>
+      <c r="T54" s="15"/>
+      <c r="U54" s="15"/>
+      <c r="V54" s="15"/>
     </row>
     <row r="55">
-      <c r="A55" s="22" t="s">
+      <c r="A55" s="21" t="s">
         <v>71</v>
       </c>
       <c r="B55" s="15"/>
@@ -2004,18 +1995,18 @@
       <c r="M55" s="15"/>
       <c r="N55" s="15"/>
       <c r="O55" s="15"/>
-      <c r="P55" s="19" t="s">
+      <c r="P55" s="14" t="s">
         <v>20</v>
       </c>
       <c r="Q55" s="15"/>
-      <c r="R55" s="23"/>
-      <c r="S55" s="23"/>
-      <c r="T55" s="23"/>
-      <c r="U55" s="23"/>
-      <c r="V55" s="23"/>
+      <c r="R55" s="15"/>
+      <c r="S55" s="15"/>
+      <c r="T55" s="15"/>
+      <c r="U55" s="15"/>
+      <c r="V55" s="15"/>
     </row>
     <row r="56">
-      <c r="A56" s="22" t="s">
+      <c r="A56" s="21" t="s">
         <v>72</v>
       </c>
       <c r="B56" s="15"/>
@@ -2033,17 +2024,17 @@
       <c r="N56" s="15"/>
       <c r="O56" s="15"/>
       <c r="P56" s="15"/>
-      <c r="Q56" s="19" t="s">
+      <c r="Q56" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="R56" s="23"/>
-      <c r="S56" s="23"/>
-      <c r="T56" s="23"/>
-      <c r="U56" s="23"/>
-      <c r="V56" s="23"/>
+      <c r="R56" s="15"/>
+      <c r="S56" s="15"/>
+      <c r="T56" s="15"/>
+      <c r="U56" s="15"/>
+      <c r="V56" s="15"/>
     </row>
     <row r="57">
-      <c r="A57" s="22" t="s">
+      <c r="A57" s="21" t="s">
         <v>73</v>
       </c>
       <c r="B57" s="15"/>
@@ -2061,17 +2052,17 @@
       <c r="N57" s="15"/>
       <c r="O57" s="15"/>
       <c r="P57" s="15"/>
-      <c r="Q57" s="19" t="s">
+      <c r="Q57" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="R57" s="23"/>
-      <c r="S57" s="23"/>
-      <c r="T57" s="23"/>
-      <c r="U57" s="23"/>
-      <c r="V57" s="23"/>
+      <c r="R57" s="15"/>
+      <c r="S57" s="15"/>
+      <c r="T57" s="15"/>
+      <c r="U57" s="15"/>
+      <c r="V57" s="15"/>
     </row>
     <row r="58">
-      <c r="A58" s="22" t="s">
+      <c r="A58" s="21" t="s">
         <v>74</v>
       </c>
       <c r="B58" s="15"/>
@@ -2090,16 +2081,16 @@
       <c r="O58" s="15"/>
       <c r="P58" s="15"/>
       <c r="Q58" s="15"/>
-      <c r="R58" s="19" t="s">
+      <c r="R58" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="S58" s="23"/>
-      <c r="T58" s="23"/>
-      <c r="U58" s="23"/>
-      <c r="V58" s="23"/>
+      <c r="S58" s="15"/>
+      <c r="T58" s="15"/>
+      <c r="U58" s="15"/>
+      <c r="V58" s="15"/>
     </row>
     <row r="59">
-      <c r="A59" s="22" t="s">
+      <c r="A59" s="21" t="s">
         <v>75</v>
       </c>
       <c r="B59" s="15"/>
@@ -2118,16 +2109,16 @@
       <c r="O59" s="15"/>
       <c r="P59" s="15"/>
       <c r="Q59" s="15"/>
-      <c r="R59" s="23"/>
-      <c r="S59" s="19"/>
-      <c r="T59" s="23"/>
-      <c r="U59" s="23"/>
-      <c r="V59" s="19" t="s">
+      <c r="R59" s="15"/>
+      <c r="S59" s="14"/>
+      <c r="T59" s="15"/>
+      <c r="U59" s="15"/>
+      <c r="V59" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="22" t="s">
+      <c r="A60" s="21" t="s">
         <v>76</v>
       </c>
       <c r="B60" s="15"/>
@@ -2146,16 +2137,16 @@
       <c r="O60" s="15"/>
       <c r="P60" s="15"/>
       <c r="Q60" s="15"/>
-      <c r="R60" s="23"/>
-      <c r="S60" s="19" t="s">
+      <c r="R60" s="15"/>
+      <c r="S60" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="T60" s="23"/>
-      <c r="U60" s="23"/>
-      <c r="V60" s="23"/>
+      <c r="T60" s="15"/>
+      <c r="U60" s="15"/>
+      <c r="V60" s="15"/>
     </row>
     <row r="61">
-      <c r="A61" s="22" t="s">
+      <c r="A61" s="21" t="s">
         <v>77</v>
       </c>
       <c r="B61" s="15"/>
@@ -2174,16 +2165,16 @@
       <c r="O61" s="15"/>
       <c r="P61" s="15"/>
       <c r="Q61" s="15"/>
-      <c r="R61" s="23"/>
-      <c r="S61" s="23"/>
-      <c r="T61" s="19" t="s">
+      <c r="R61" s="15"/>
+      <c r="S61" s="15"/>
+      <c r="T61" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="U61" s="23"/>
-      <c r="V61" s="23"/>
+      <c r="U61" s="15"/>
+      <c r="V61" s="15"/>
     </row>
     <row r="62">
-      <c r="A62" s="22" t="s">
+      <c r="A62" s="21" t="s">
         <v>78</v>
       </c>
       <c r="B62" s="15"/>
@@ -2202,16 +2193,16 @@
       <c r="O62" s="15"/>
       <c r="P62" s="15"/>
       <c r="Q62" s="15"/>
-      <c r="R62" s="23"/>
-      <c r="S62" s="23"/>
-      <c r="T62" s="23"/>
-      <c r="U62" s="19" t="s">
+      <c r="R62" s="15"/>
+      <c r="S62" s="15"/>
+      <c r="T62" s="15"/>
+      <c r="U62" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="V62" s="23"/>
+      <c r="V62" s="15"/>
     </row>
     <row r="63">
-      <c r="A63" s="22" t="s">
+      <c r="A63" s="21" t="s">
         <v>79</v>
       </c>
       <c r="B63" s="15"/>
@@ -2230,16 +2221,16 @@
       <c r="O63" s="15"/>
       <c r="P63" s="15"/>
       <c r="Q63" s="15"/>
-      <c r="R63" s="19" t="s">
+      <c r="R63" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="S63" s="23"/>
-      <c r="T63" s="23"/>
-      <c r="U63" s="23"/>
-      <c r="V63" s="23"/>
+      <c r="S63" s="15"/>
+      <c r="T63" s="15"/>
+      <c r="U63" s="15"/>
+      <c r="V63" s="15"/>
     </row>
     <row r="64">
-      <c r="A64" s="22" t="s">
+      <c r="A64" s="21" t="s">
         <v>80</v>
       </c>
       <c r="B64" s="15"/>
@@ -2258,11 +2249,11 @@
       <c r="O64" s="15"/>
       <c r="P64" s="15"/>
       <c r="Q64" s="15"/>
-      <c r="R64" s="23"/>
-      <c r="S64" s="23"/>
-      <c r="T64" s="23"/>
-      <c r="U64" s="23"/>
-      <c r="V64" s="19" t="s">
+      <c r="R64" s="15"/>
+      <c r="S64" s="15"/>
+      <c r="T64" s="15"/>
+      <c r="U64" s="15"/>
+      <c r="V64" s="14" t="s">
         <v>20</v>
       </c>
     </row>
@@ -20301,16 +20292,30 @@
   <mergeCells count="8">
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:I1"/>
+    <mergeCell ref="J1:V1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:O2"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="R2:V2"/>
-    <mergeCell ref="J1:V1"/>
   </mergeCells>
   <printOptions gridLines="1" horizontalCentered="1"/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup fitToHeight="0" paperSize="9" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>